--- a/크롤링.xlsx
+++ b/크롤링.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정희운\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pycharm\source\autoNarajangteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E599AE3-73A1-4FAF-8F00-6D9F212AF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C5CC49-3C6E-4CB3-A0AD-EC22F051BE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACF93AB5-423D-43BF-90C8-0833EDE72526}"/>
+    <workbookView xWindow="2415" yWindow="2280" windowWidth="21600" windowHeight="13110" activeTab="2" xr2:uid="{ACF93AB5-423D-43BF-90C8-0833EDE72526}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="table1" sheetId="1" r:id="rId1"/>
+    <sheet name="table2" sheetId="3" r:id="rId2"/>
+    <sheet name="table3" sheetId="2" r:id="rId3"/>
+    <sheet name="table4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,22 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[물품정보]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부품명번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[첨부 파일(e-발주시스템)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,7 +152,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크롤링 일자</t>
+    <t>의견마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 및 추진방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체제품(당사참여분야)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb1.등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1.참조번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb2.품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb2.수요기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb1.사전규격공개일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb2.의견등록마감일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb1.업체등록의견수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb2.배정예산액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +227,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -213,11 +271,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F53E52-9E26-43DF-B1FD-E1D477ADA3E4}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,28 +612,16 @@
     <col min="27" max="27" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -583,69 +638,6 @@
       </c>
       <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -655,34 +647,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBECAE4-361C-499E-9320-9AB734594595}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C391B2D-610C-4937-8252-AC02D21D5CDA}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1">
         <v>4321150102</v>
       </c>
       <c r="F1">
         <v>8111179901</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACF0DF-FDC9-4FA5-BCF2-6165D314D6C0}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="14" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
